--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.4208465</v>
+        <v>0.9458645</v>
       </c>
       <c r="N2">
-        <v>4.841693</v>
+        <v>1.891729</v>
       </c>
       <c r="O2">
-        <v>0.4241363608649917</v>
+        <v>0.3830345514803072</v>
       </c>
       <c r="P2">
-        <v>0.3365467172033127</v>
+        <v>0.308972056889055</v>
       </c>
       <c r="Q2">
-        <v>472.2568917453902</v>
+        <v>171.6691170027838</v>
       </c>
       <c r="R2">
-        <v>1889.027566981561</v>
+        <v>686.6764680111351</v>
       </c>
       <c r="S2">
-        <v>0.1119976817000691</v>
+        <v>0.08578006948971692</v>
       </c>
       <c r="T2">
-        <v>0.0667138665423043</v>
+        <v>0.05111476397502001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>2.842068</v>
       </c>
       <c r="O3">
-        <v>0.1659783576875341</v>
+        <v>0.383638545005313</v>
       </c>
       <c r="P3">
-        <v>0.1975525204651729</v>
+        <v>0.4641888958611739</v>
       </c>
       <c r="Q3">
-        <v>184.809487068406</v>
+        <v>171.93981591157</v>
       </c>
       <c r="R3">
-        <v>1108.856922410436</v>
+        <v>1031.63889546942</v>
       </c>
       <c r="S3">
-        <v>0.04382833680064004</v>
+        <v>0.08591533302233062</v>
       </c>
       <c r="T3">
-        <v>0.03916095986592989</v>
+        <v>0.07679304753532729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3158855</v>
+        <v>0.03079666666666667</v>
       </c>
       <c r="N4">
-        <v>0.631771</v>
+        <v>0.09239</v>
       </c>
       <c r="O4">
-        <v>0.05534366859692191</v>
+        <v>0.01247132903682842</v>
       </c>
       <c r="P4">
-        <v>0.04391448529971934</v>
+        <v>0.01508986135750934</v>
       </c>
       <c r="Q4">
-        <v>61.62270279319174</v>
+        <v>5.589422769641668</v>
       </c>
       <c r="R4">
-        <v>246.490811172767</v>
+        <v>33.53653661785</v>
       </c>
       <c r="S4">
-        <v>0.01461407969595229</v>
+        <v>0.002792937261857608</v>
       </c>
       <c r="T4">
-        <v>0.008705195926156021</v>
+        <v>0.002496389833666502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.522854666666667</v>
+        <v>0.3396735</v>
       </c>
       <c r="N5">
-        <v>4.568564</v>
+        <v>0.679347</v>
       </c>
       <c r="O5">
-        <v>0.2668066878450451</v>
+        <v>0.1375531978652821</v>
       </c>
       <c r="P5">
-        <v>0.3175614844917336</v>
+        <v>0.1109562944435534</v>
       </c>
       <c r="Q5">
-        <v>297.0773287195046</v>
+        <v>61.64884062595126</v>
       </c>
       <c r="R5">
-        <v>1782.463972317028</v>
+        <v>246.595362503805</v>
       </c>
       <c r="S5">
-        <v>0.07045312134941151</v>
+        <v>0.03080485252783602</v>
       </c>
       <c r="T5">
-        <v>0.0629504119707664</v>
+        <v>0.01835604442398352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5007653333333334</v>
+        <v>0.2057066666666667</v>
       </c>
       <c r="N6">
-        <v>1.502296</v>
+        <v>0.61712</v>
       </c>
       <c r="O6">
-        <v>0.08773492500550718</v>
+        <v>0.08330237661226923</v>
       </c>
       <c r="P6">
-        <v>0.1044247925400615</v>
+        <v>0.1007928914487084</v>
       </c>
       <c r="Q6">
-        <v>97.68891989386533</v>
+        <v>37.33460958546667</v>
       </c>
       <c r="R6">
-        <v>586.1335193631919</v>
+        <v>224.0076575128</v>
       </c>
       <c r="S6">
-        <v>0.02316733275285966</v>
+        <v>0.01865545451929394</v>
       </c>
       <c r="T6">
-        <v>0.02070019203015093</v>
+        <v>0.016674662779005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.4208465</v>
+        <v>0.9458645</v>
       </c>
       <c r="N7">
-        <v>4.841693</v>
+        <v>1.891729</v>
       </c>
       <c r="O7">
-        <v>0.4241363608649917</v>
+        <v>0.3830345514803072</v>
       </c>
       <c r="P7">
-        <v>0.3365467172033127</v>
+        <v>0.308972056889055</v>
       </c>
       <c r="Q7">
-        <v>151.0800003529218</v>
+        <v>59.02943825385717</v>
       </c>
       <c r="R7">
-        <v>906.4800021175311</v>
+        <v>354.176629523143</v>
       </c>
       <c r="S7">
-        <v>0.03582924905179646</v>
+        <v>0.02949598275892985</v>
       </c>
       <c r="T7">
-        <v>0.0320137127385431</v>
+        <v>0.02636416954257706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -939,10 +939,10 @@
         <v>2.842068</v>
       </c>
       <c r="O8">
-        <v>0.1659783576875341</v>
+        <v>0.383638545005313</v>
       </c>
       <c r="P8">
-        <v>0.1975525204651729</v>
+        <v>0.4641888958611739</v>
       </c>
       <c r="Q8">
         <v>59.12251967001734</v>
@@ -951,10 +951,10 @@
         <v>532.102677030156</v>
       </c>
       <c r="S8">
-        <v>0.01402115089276156</v>
+        <v>0.02954249392229939</v>
       </c>
       <c r="T8">
-        <v>0.01879201108690818</v>
+        <v>0.03960861339205188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3158855</v>
+        <v>0.03079666666666667</v>
       </c>
       <c r="N9">
-        <v>0.631771</v>
+        <v>0.09239</v>
       </c>
       <c r="O9">
-        <v>0.05534366859692191</v>
+        <v>0.01247132903682842</v>
       </c>
       <c r="P9">
-        <v>0.04391448529971934</v>
+        <v>0.01508986135750934</v>
       </c>
       <c r="Q9">
-        <v>19.71375775022617</v>
+        <v>1.921955981458889</v>
       </c>
       <c r="R9">
-        <v>118.282546501357</v>
+        <v>17.29760383313</v>
       </c>
       <c r="S9">
-        <v>0.004675199460746995</v>
+        <v>0.0009603679480861263</v>
       </c>
       <c r="T9">
-        <v>0.004177327085906131</v>
+        <v>0.001287597549140862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.522854666666667</v>
+        <v>0.3396735</v>
       </c>
       <c r="N10">
-        <v>4.568564</v>
+        <v>0.679347</v>
       </c>
       <c r="O10">
-        <v>0.2668066878450451</v>
+        <v>0.1375531978652821</v>
       </c>
       <c r="P10">
-        <v>0.3175614844917336</v>
+        <v>0.1109562944435534</v>
       </c>
       <c r="Q10">
-        <v>95.03819576228757</v>
+        <v>21.1983174066915</v>
       </c>
       <c r="R10">
-        <v>855.3437618605881</v>
+        <v>127.189904440149</v>
       </c>
       <c r="S10">
-        <v>0.02253870252479473</v>
+        <v>0.01059243020502975</v>
       </c>
       <c r="T10">
-        <v>0.03020775904702125</v>
+        <v>0.009467751187533258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.5007653333333334</v>
+        <v>0.2057066666666667</v>
       </c>
       <c r="N11">
-        <v>1.502296</v>
+        <v>0.61712</v>
       </c>
       <c r="O11">
-        <v>0.08773492500550718</v>
+        <v>0.08330237661226923</v>
       </c>
       <c r="P11">
-        <v>0.1044247925400615</v>
+        <v>0.1007928914487084</v>
       </c>
       <c r="Q11">
-        <v>31.25172402989245</v>
+        <v>12.83772567678222</v>
       </c>
       <c r="R11">
-        <v>281.265516269032</v>
+        <v>115.53953109104</v>
       </c>
       <c r="S11">
-        <v>0.007411476045468341</v>
+        <v>0.006414788051985174</v>
       </c>
       <c r="T11">
-        <v>0.009933317249206496</v>
+        <v>0.008600521696350354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H12">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I12">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J12">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.4208465</v>
+        <v>0.9458645</v>
       </c>
       <c r="N12">
-        <v>4.841693</v>
+        <v>1.891729</v>
       </c>
       <c r="O12">
-        <v>0.4241363608649917</v>
+        <v>0.3830345514803072</v>
       </c>
       <c r="P12">
-        <v>0.3365467172033127</v>
+        <v>0.308972056889055</v>
       </c>
       <c r="Q12">
-        <v>345.8472422039104</v>
+        <v>162.6868322233758</v>
       </c>
       <c r="R12">
-        <v>2075.083453223462</v>
+        <v>976.120993340255</v>
       </c>
       <c r="S12">
-        <v>0.08201910872289211</v>
+        <v>0.08129177814176558</v>
       </c>
       <c r="T12">
-        <v>0.07328471165918421</v>
+        <v>0.07266041070281752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H13">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I13">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J13">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1249,22 +1249,22 @@
         <v>2.842068</v>
       </c>
       <c r="O13">
-        <v>0.1659783576875341</v>
+        <v>0.383638545005313</v>
       </c>
       <c r="P13">
-        <v>0.1975525204651729</v>
+        <v>0.4641888958611739</v>
       </c>
       <c r="Q13">
-        <v>135.3412783443013</v>
+        <v>162.9433672876067</v>
       </c>
       <c r="R13">
-        <v>1218.071505098712</v>
+        <v>1466.49030558846</v>
       </c>
       <c r="S13">
-        <v>0.03209674581320385</v>
+        <v>0.08141996424780765</v>
       </c>
       <c r="T13">
-        <v>0.04301803809035275</v>
+        <v>0.1091624794700167</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3158855</v>
+        <v>0.03079666666666667</v>
       </c>
       <c r="N14">
-        <v>0.631771</v>
+        <v>0.09239</v>
       </c>
       <c r="O14">
-        <v>0.05534366859692191</v>
+        <v>0.01247132903682842</v>
       </c>
       <c r="P14">
-        <v>0.04391448529971934</v>
+        <v>0.01508986135750934</v>
       </c>
       <c r="Q14">
-        <v>45.12806946958566</v>
+        <v>5.296966048561111</v>
       </c>
       <c r="R14">
-        <v>270.768416817514</v>
+        <v>47.67269443705</v>
       </c>
       <c r="S14">
-        <v>0.01070230895204844</v>
+        <v>0.002646801729182747</v>
       </c>
       <c r="T14">
-        <v>0.009562596300433435</v>
+        <v>0.003548655935830825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.522854666666667</v>
+        <v>0.3396735</v>
       </c>
       <c r="N15">
-        <v>4.568564</v>
+        <v>0.679347</v>
       </c>
       <c r="O15">
-        <v>0.2668066878450451</v>
+        <v>0.1375531978652821</v>
       </c>
       <c r="P15">
-        <v>0.3175614844917336</v>
+        <v>0.1109562944435534</v>
       </c>
       <c r="Q15">
-        <v>217.5582329338196</v>
+        <v>58.4231734093275</v>
       </c>
       <c r="R15">
-        <v>1958.024096404376</v>
+        <v>350.5390404559651</v>
       </c>
       <c r="S15">
-        <v>0.0515948377869051</v>
+        <v>0.02919304276948443</v>
       </c>
       <c r="T15">
-        <v>0.06915058336753885</v>
+        <v>0.02609339499987947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5007653333333334</v>
+        <v>0.2057066666666667</v>
       </c>
       <c r="N16">
-        <v>1.502296</v>
+        <v>0.61712</v>
       </c>
       <c r="O16">
-        <v>0.08773492500550718</v>
+        <v>0.08330237661226923</v>
       </c>
       <c r="P16">
-        <v>0.1044247925400615</v>
+        <v>0.1007928914487084</v>
       </c>
       <c r="Q16">
-        <v>71.54039280254045</v>
+        <v>35.38114176737778</v>
       </c>
       <c r="R16">
-        <v>643.863535222864</v>
+        <v>318.4302759064</v>
       </c>
       <c r="S16">
-        <v>0.01696610103917038</v>
+        <v>0.01767934065497626</v>
       </c>
       <c r="T16">
-        <v>0.02273901488317119</v>
+        <v>0.02370328554085852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H17">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I17">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J17">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.4208465</v>
+        <v>0.9458645</v>
       </c>
       <c r="N17">
-        <v>4.841693</v>
+        <v>1.891729</v>
       </c>
       <c r="O17">
-        <v>0.4241363608649917</v>
+        <v>0.3830345514803072</v>
       </c>
       <c r="P17">
-        <v>0.3365467172033127</v>
+        <v>0.308972056889055</v>
       </c>
       <c r="Q17">
-        <v>128.3462960774243</v>
+        <v>52.63054494420975</v>
       </c>
       <c r="R17">
-        <v>513.385184309697</v>
+        <v>210.522179776839</v>
       </c>
       <c r="S17">
-        <v>0.03043785674008113</v>
+        <v>0.02629856715883715</v>
       </c>
       <c r="T17">
-        <v>0.01813097451275455</v>
+        <v>0.0156708319450163</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H18">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I18">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J18">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>2.842068</v>
       </c>
       <c r="O18">
-        <v>0.1659783576875341</v>
+        <v>0.383638545005313</v>
       </c>
       <c r="P18">
-        <v>0.1975525204651729</v>
+        <v>0.4641888958611739</v>
       </c>
       <c r="Q18">
-        <v>50.22608152426201</v>
+        <v>52.713536173698</v>
       </c>
       <c r="R18">
-        <v>301.356489145572</v>
+        <v>316.281217042188</v>
       </c>
       <c r="S18">
-        <v>0.01191132366709591</v>
+        <v>0.0263400364315685</v>
       </c>
       <c r="T18">
-        <v>0.01064286035308627</v>
+        <v>0.02354331408161982</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H19">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I19">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J19">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3158855</v>
+        <v>0.03079666666666667</v>
       </c>
       <c r="N19">
-        <v>0.631771</v>
+        <v>0.09239</v>
       </c>
       <c r="O19">
-        <v>0.05534366859692191</v>
+        <v>0.01247132903682842</v>
       </c>
       <c r="P19">
-        <v>0.04391448529971934</v>
+        <v>0.01508986135750934</v>
       </c>
       <c r="Q19">
-        <v>16.74733772238975</v>
+        <v>1.713612625415</v>
       </c>
       <c r="R19">
-        <v>66.98935088955901</v>
+        <v>10.28167575249</v>
       </c>
       <c r="S19">
-        <v>0.003971700640775405</v>
+        <v>0.0008562623997429387</v>
       </c>
       <c r="T19">
-        <v>0.002365830278561126</v>
+        <v>0.0007653464969877057</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.522854666666667</v>
+        <v>0.3396735</v>
       </c>
       <c r="N20">
-        <v>4.568564</v>
+        <v>0.679347</v>
       </c>
       <c r="O20">
-        <v>0.2668066878450451</v>
+        <v>0.1375531978652821</v>
       </c>
       <c r="P20">
-        <v>0.3175614844917336</v>
+        <v>0.1109562944435534</v>
       </c>
       <c r="Q20">
-        <v>80.737360229526</v>
+        <v>18.90038309726925</v>
       </c>
       <c r="R20">
-        <v>484.4241613771561</v>
+        <v>75.60153238907701</v>
       </c>
       <c r="S20">
-        <v>0.01914720003104864</v>
+        <v>0.009444192431185725</v>
       </c>
       <c r="T20">
-        <v>0.01710817217115748</v>
+        <v>0.005627620377628607</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,28 +1739,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.5007653333333334</v>
+        <v>0.2057066666666667</v>
       </c>
       <c r="N21">
-        <v>1.502296</v>
+        <v>0.61712</v>
       </c>
       <c r="O21">
-        <v>0.08773492500550718</v>
+        <v>0.08330237661226923</v>
       </c>
       <c r="P21">
-        <v>0.1044247925400615</v>
+        <v>0.1007928914487084</v>
       </c>
       <c r="Q21">
-        <v>26.54913301496401</v>
+        <v>11.44609398632</v>
       </c>
       <c r="R21">
-        <v>159.294798089784</v>
+        <v>68.67656391792001</v>
       </c>
       <c r="S21">
-        <v>0.00629623707095802</v>
+        <v>0.005719413920655507</v>
       </c>
       <c r="T21">
-        <v>0.005625736800456599</v>
+        <v>0.005112140169077314</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H22">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I22">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J22">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.4208465</v>
+        <v>0.9458645</v>
       </c>
       <c r="N22">
-        <v>4.841693</v>
+        <v>1.891729</v>
       </c>
       <c r="O22">
-        <v>0.4241363608649917</v>
+        <v>0.3830345514803072</v>
       </c>
       <c r="P22">
-        <v>0.3365467172033127</v>
+        <v>0.308972056889055</v>
       </c>
       <c r="Q22">
-        <v>348.078591295481</v>
+        <v>192.3758970360465</v>
       </c>
       <c r="R22">
-        <v>2088.471547772886</v>
+        <v>1154.255382216279</v>
       </c>
       <c r="S22">
-        <v>0.08254828241985153</v>
+        <v>0.09612688702552771</v>
       </c>
       <c r="T22">
-        <v>0.0737575324737863</v>
+        <v>0.08592036304923278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H23">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I23">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J23">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1869,22 +1869,22 @@
         <v>2.842068</v>
       </c>
       <c r="O23">
-        <v>0.1659783576875341</v>
+        <v>0.383638545005313</v>
       </c>
       <c r="P23">
-        <v>0.1975525204651729</v>
+        <v>0.4641888958611739</v>
       </c>
       <c r="Q23">
-        <v>136.214477842904</v>
+        <v>192.679247727852</v>
       </c>
       <c r="R23">
-        <v>1225.930300586136</v>
+        <v>1734.113229550668</v>
       </c>
       <c r="S23">
-        <v>0.03230382869799504</v>
+        <v>0.09627846608574042</v>
       </c>
       <c r="T23">
-        <v>0.04329558334299776</v>
+        <v>0.1290837717086363</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H24">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I24">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J24">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3158855</v>
+        <v>0.03079666666666667</v>
       </c>
       <c r="N24">
-        <v>0.631771</v>
+        <v>0.09239</v>
       </c>
       <c r="O24">
-        <v>0.05534366859692191</v>
+        <v>0.01247132903682842</v>
       </c>
       <c r="P24">
-        <v>0.04391448529971934</v>
+        <v>0.01508986135750934</v>
       </c>
       <c r="Q24">
-        <v>45.419228295007</v>
+        <v>6.263620609209999</v>
       </c>
       <c r="R24">
-        <v>272.515369770042</v>
+        <v>56.37258548289</v>
       </c>
       <c r="S24">
-        <v>0.01077135847577945</v>
+        <v>0.003129822186401437</v>
       </c>
       <c r="T24">
-        <v>0.009624292587013765</v>
+        <v>0.004196257678620256</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H25">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I25">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J25">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.522854666666667</v>
+        <v>0.3396735</v>
       </c>
       <c r="N25">
-        <v>4.568564</v>
+        <v>0.679347</v>
       </c>
       <c r="O25">
-        <v>0.2668066878450451</v>
+        <v>0.1375531978652821</v>
       </c>
       <c r="P25">
-        <v>0.3175614844917336</v>
+        <v>0.1109562944435534</v>
       </c>
       <c r="Q25">
-        <v>218.9618825981253</v>
+        <v>69.0849421474995</v>
       </c>
       <c r="R25">
-        <v>1970.656943383128</v>
+        <v>414.509652884997</v>
       </c>
       <c r="S25">
-        <v>0.05192771912981217</v>
+        <v>0.03452054301653734</v>
       </c>
       <c r="T25">
-        <v>0.06959673147152681</v>
+        <v>0.03085523395603025</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.5007653333333334</v>
+        <v>0.2057066666666667</v>
       </c>
       <c r="N26">
-        <v>1.502296</v>
+        <v>0.61712</v>
       </c>
       <c r="O26">
-        <v>0.08773492500550718</v>
+        <v>0.08330237661226923</v>
       </c>
       <c r="P26">
-        <v>0.1044247925400615</v>
+        <v>0.1007928914487084</v>
       </c>
       <c r="Q26">
-        <v>72.00195956095467</v>
+        <v>41.83792131568</v>
       </c>
       <c r="R26">
-        <v>648.017636048592</v>
+        <v>376.54129184112</v>
       </c>
       <c r="S26">
-        <v>0.0170755635113879</v>
+        <v>0.02090568100088813</v>
       </c>
       <c r="T26">
-        <v>0.02288572323880082</v>
+        <v>0.02802894835620881</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H27">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I27">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J27">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.4208465</v>
+        <v>0.9458645</v>
       </c>
       <c r="N27">
-        <v>4.841693</v>
+        <v>1.891729</v>
       </c>
       <c r="O27">
-        <v>0.4241363608649917</v>
+        <v>0.3830345514803072</v>
       </c>
       <c r="P27">
-        <v>0.3365467172033127</v>
+        <v>0.308972056889055</v>
       </c>
       <c r="Q27">
-        <v>342.8326354898041</v>
+        <v>128.1638940934858</v>
       </c>
       <c r="R27">
-        <v>2056.995812938825</v>
+        <v>768.983364560915</v>
       </c>
       <c r="S27">
-        <v>0.08130418223030134</v>
+        <v>0.06404126690553</v>
       </c>
       <c r="T27">
-        <v>0.07264591927674025</v>
+        <v>0.05724151767439124</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H28">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I28">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J28">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2179,22 +2179,22 @@
         <v>2.842068</v>
       </c>
       <c r="O28">
-        <v>0.1659783576875341</v>
+        <v>0.383638545005313</v>
       </c>
       <c r="P28">
-        <v>0.1975525204651729</v>
+        <v>0.4641888958611739</v>
       </c>
       <c r="Q28">
-        <v>134.1615646539666</v>
+        <v>128.3659911676867</v>
       </c>
       <c r="R28">
-        <v>1207.4540818857</v>
+        <v>1155.29392050918</v>
       </c>
       <c r="S28">
-        <v>0.0318169718158377</v>
+        <v>0.0641422512955664</v>
       </c>
       <c r="T28">
-        <v>0.04264306772589806</v>
+        <v>0.08599766967352181</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H29">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I29">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J29">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.3158855</v>
+        <v>0.03079666666666667</v>
       </c>
       <c r="N29">
-        <v>0.631771</v>
+        <v>0.09239</v>
       </c>
       <c r="O29">
-        <v>0.05534366859692191</v>
+        <v>0.01247132903682842</v>
       </c>
       <c r="P29">
-        <v>0.04391448529971934</v>
+        <v>0.01508986135750934</v>
       </c>
       <c r="Q29">
-        <v>44.73470683829583</v>
+        <v>4.172924055294445</v>
       </c>
       <c r="R29">
-        <v>268.408241029775</v>
+        <v>37.55631649765</v>
       </c>
       <c r="S29">
-        <v>0.01060902137161933</v>
+        <v>0.002085137511557563</v>
       </c>
       <c r="T29">
-        <v>0.009479243121648865</v>
+        <v>0.002795613863263187</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H30">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I30">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J30">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.522854666666667</v>
+        <v>0.3396735</v>
       </c>
       <c r="N30">
-        <v>4.568564</v>
+        <v>0.679347</v>
       </c>
       <c r="O30">
-        <v>0.2668066878450451</v>
+        <v>0.1375531978652821</v>
       </c>
       <c r="P30">
-        <v>0.3175614844917336</v>
+        <v>0.1109562944435534</v>
       </c>
       <c r="Q30">
-        <v>215.6618682106778</v>
+        <v>46.0254914740575</v>
       </c>
       <c r="R30">
-        <v>1940.9568138961</v>
+        <v>276.152948844345</v>
       </c>
       <c r="S30">
-        <v>0.05114510702307291</v>
+        <v>0.02299813691520883</v>
       </c>
       <c r="T30">
-        <v>0.06854782646372282</v>
+        <v>0.02055624949849829</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H31">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I31">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J31">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.5007653333333334</v>
+        <v>0.2057066666666667</v>
       </c>
       <c r="N31">
-        <v>1.502296</v>
+        <v>0.61712</v>
       </c>
       <c r="O31">
-        <v>0.08773492500550718</v>
+        <v>0.08330237661226923</v>
       </c>
       <c r="P31">
-        <v>0.1044247925400615</v>
+        <v>0.1007928914487084</v>
       </c>
       <c r="Q31">
-        <v>70.91680492282222</v>
+        <v>27.87309116791111</v>
       </c>
       <c r="R31">
-        <v>638.2512443054001</v>
+        <v>250.8578205112</v>
       </c>
       <c r="S31">
-        <v>0.01681821458566288</v>
+        <v>0.01392769846447022</v>
       </c>
       <c r="T31">
-        <v>0.02254080833827543</v>
+        <v>0.01867333290720834</v>
       </c>
     </row>
   </sheetData>
